--- a/Manuscript_items/not_needed/Framingham_table.xlsx
+++ b/Manuscript_items/not_needed/Framingham_table.xlsx
@@ -438,7 +438,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>non-Hispanic Black</t>
+          <t>Non-Hispanic Blacks</t>
         </is>
       </c>
       <c r="B3">
@@ -469,7 +469,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>non-Hispanic White</t>
+          <t>Non-Hispanic Whites</t>
         </is>
       </c>
       <c r="B4">
@@ -500,7 +500,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Hispanics</t>
         </is>
       </c>
       <c r="B5">
@@ -562,7 +562,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>non-Hispanic Black</t>
+          <t>Non-Hispanic Blacks</t>
         </is>
       </c>
       <c r="B7">
@@ -593,7 +593,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>non-Hispanic White</t>
+          <t>Non-Hispanic Whites</t>
         </is>
       </c>
       <c r="B8">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Hispanics</t>
         </is>
       </c>
       <c r="B9">
@@ -686,7 +686,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>non-Hispanic Black</t>
+          <t>Non-Hispanic Blacks</t>
         </is>
       </c>
       <c r="B11">
@@ -717,7 +717,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>non-Hispanic White</t>
+          <t>Non-Hispanic Whites</t>
         </is>
       </c>
       <c r="B12">
@@ -748,7 +748,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Hispanics</t>
         </is>
       </c>
       <c r="B13">
@@ -810,7 +810,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>non-Hispanic Black</t>
+          <t>Non-Hispanic Blacks</t>
         </is>
       </c>
       <c r="B15">
@@ -841,7 +841,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>non-Hispanic White</t>
+          <t>Non-Hispanic Whites</t>
         </is>
       </c>
       <c r="B16">
@@ -872,7 +872,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Hispanics</t>
         </is>
       </c>
       <c r="B17">
@@ -934,7 +934,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>non-Hispanic Black</t>
+          <t>Non-Hispanic Blacks</t>
         </is>
       </c>
       <c r="B19">
@@ -965,7 +965,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>non-Hispanic White</t>
+          <t>Non-Hispanic Whites</t>
         </is>
       </c>
       <c r="B20">
@@ -996,7 +996,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Hispanics</t>
         </is>
       </c>
       <c r="B21">
@@ -1058,7 +1058,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>non-Hispanic Black</t>
+          <t>Non-Hispanic Blacks</t>
         </is>
       </c>
       <c r="B23">
@@ -1089,7 +1089,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>non-Hispanic White</t>
+          <t>Non-Hispanic Whites</t>
         </is>
       </c>
       <c r="B24">
@@ -1120,7 +1120,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Hispanics</t>
         </is>
       </c>
       <c r="B25">
